--- a/assets/downloadables/DCF_Form_10.xlsx
+++ b/assets/downloadables/DCF_Form_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer Veriton M4660G\Downloads\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="form10" sheetId="1" r:id="rId1"/>
+    <sheet name="Guidelines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FORM 10 - NEGOSYO CENTER TRACKER</t>
   </si>
@@ -60,6 +61,18 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Input field</t>
+  </si>
+  <si>
+    <t>Guideline</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
   </si>
 </sst>
 </file>
@@ -82,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,8 +114,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -162,11 +187,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -179,6 +232,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,17 +568,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -525,12 +596,12 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -541,10 +612,10 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
@@ -767,4 +838,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/downloadables/DCF_Form_10.xlsx
+++ b/assets/downloadables/DCF_Form_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Data_Capture_Forms\DATA CAPTURE FORMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -95,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +126,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -219,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -261,6 +267,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -553,7 +562,7 @@
   <dimension ref="A2:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:I6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,31 +645,31 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="17">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="17">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="17">
         <v>5</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="17">
         <v>6</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="17">
         <v>7</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="17">
         <v>8</v>
       </c>
     </row>

--- a/assets/downloadables/DCF_Form_10.xlsx
+++ b/assets/downloadables/DCF_Form_10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\dti_web_app_v2\assets\downloadables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\update template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -257,6 +257,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -267,9 +270,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -577,17 +577,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -605,12 +605,12 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -621,10 +621,10 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
@@ -645,31 +645,31 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="13">
         <v>0</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="13">
         <v>2</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
         <v>3</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="13">
         <v>4</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>6</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="13">
         <v>7</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>8</v>
       </c>
     </row>
